--- a/ClusterTaining.xlsx
+++ b/ClusterTaining.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/shipingx_cheng_intel_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT PROJECTS\Shipin3x\Shipin3x\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1696" documentId="11_F25DC773A252ABDACC10481A615D711C5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28143E1E-E3AC-449A-B50C-35AB090B79AB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034BFE85-C73D-477E-8326-32622EF00D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -379,9 +379,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -389,18 +386,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -422,24 +410,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -452,30 +422,48 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF0000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="lightGray">
@@ -495,6 +483,18 @@
         <bottom style="hair">
           <color auto="1"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF0000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -960,7 +960,7 @@
   <dimension ref="C1:AU21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE20" sqref="AE20"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1002,200 +1002,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:47" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="18"/>
-      <c r="AN1" s="18"/>
-      <c r="AO1" s="18"/>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="18"/>
-      <c r="AT1" s="18"/>
-      <c r="AU1" s="18"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="36"/>
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="36"/>
     </row>
     <row r="2" spans="3:47" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="18"/>
-      <c r="AP2" s="18"/>
-      <c r="AQ2" s="18"/>
-      <c r="AR2" s="18"/>
-      <c r="AS2" s="18"/>
-      <c r="AT2" s="18"/>
-      <c r="AU2" s="18"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="36"/>
+      <c r="AQ2" s="36"/>
+      <c r="AR2" s="36"/>
+      <c r="AS2" s="36"/>
+      <c r="AT2" s="36"/>
+      <c r="AU2" s="36"/>
     </row>
     <row r="3" spans="3:47" x14ac:dyDescent="0.3">
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="30"/>
-      <c r="AL3" s="30"/>
-      <c r="AM3" s="30"/>
-      <c r="AN3" s="30"/>
-      <c r="AO3" s="30"/>
-      <c r="AP3" s="30"/>
-      <c r="AQ3" s="30"/>
-      <c r="AR3" s="30"/>
-      <c r="AS3" s="30"/>
-      <c r="AT3" s="30"/>
-      <c r="AU3" s="31"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="38"/>
+      <c r="AN3" s="38"/>
+      <c r="AO3" s="38"/>
+      <c r="AP3" s="38"/>
+      <c r="AQ3" s="38"/>
+      <c r="AR3" s="38"/>
+      <c r="AS3" s="38"/>
+      <c r="AT3" s="38"/>
+      <c r="AU3" s="39"/>
     </row>
     <row r="4" spans="3:47" x14ac:dyDescent="0.3">
-      <c r="C4" s="32"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="33"/>
-      <c r="AH4" s="33"/>
-      <c r="AI4" s="33"/>
-      <c r="AJ4" s="33"/>
-      <c r="AK4" s="33"/>
-      <c r="AL4" s="33"/>
-      <c r="AM4" s="33"/>
-      <c r="AN4" s="33"/>
-      <c r="AO4" s="33"/>
-      <c r="AP4" s="33"/>
-      <c r="AQ4" s="33"/>
-      <c r="AR4" s="33"/>
-      <c r="AS4" s="33"/>
-      <c r="AT4" s="33"/>
-      <c r="AU4" s="34"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="41"/>
+      <c r="AI4" s="41"/>
+      <c r="AJ4" s="41"/>
+      <c r="AK4" s="41"/>
+      <c r="AL4" s="41"/>
+      <c r="AM4" s="41"/>
+      <c r="AN4" s="41"/>
+      <c r="AO4" s="41"/>
+      <c r="AP4" s="41"/>
+      <c r="AQ4" s="41"/>
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="42"/>
     </row>
     <row r="5" spans="3:47" x14ac:dyDescent="0.3">
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="43"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="5">
         <f ca="1">TODAY()</f>
         <v>44697</v>
@@ -1241,10 +1241,10 @@
       <c r="AR5" s="6"/>
       <c r="AS5" s="6"/>
       <c r="AT5" s="6"/>
-      <c r="AU5" s="20"/>
+      <c r="AU5" s="16"/>
     </row>
     <row r="6" spans="3:47" x14ac:dyDescent="0.3">
-      <c r="C6" s="19"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -1252,11 +1252,11 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="41" t="s">
+      <c r="K6" s="31" t="s">
         <v>17</v>
       </c>
       <c r="L6" s="6"/>
-      <c r="M6" s="44" t="s">
+      <c r="M6" s="32" t="s">
         <v>18</v>
       </c>
       <c r="N6" s="6"/>
@@ -1265,22 +1265,22 @@
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
-      <c r="T6" s="17" t="s">
+      <c r="T6" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="U6" s="17"/>
-      <c r="V6" s="11">
+      <c r="U6" s="35"/>
+      <c r="V6" s="34">
         <v>2022</v>
       </c>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
-      <c r="AA6" s="17" t="s">
+      <c r="AA6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
       <c r="AD6" s="10">
         <v>5</v>
       </c>
@@ -1300,10 +1300,10 @@
       <c r="AR6" s="6"/>
       <c r="AS6" s="6"/>
       <c r="AT6" s="6"/>
-      <c r="AU6" s="20"/>
+      <c r="AU6" s="16"/>
     </row>
     <row r="7" spans="3:47" x14ac:dyDescent="0.3">
-      <c r="C7" s="19"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -1347,46 +1347,46 @@
       <c r="AR7" s="6"/>
       <c r="AS7" s="6"/>
       <c r="AT7" s="6"/>
-      <c r="AU7" s="20"/>
+      <c r="AU7" s="16"/>
     </row>
     <row r="8" spans="3:47" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="12" t="s">
         <v>19</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="M8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="N8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="15" t="s">
+      <c r="O8" s="13" t="s">
         <v>8</v>
       </c>
       <c r="P8" s="7" t="s">
@@ -1395,19 +1395,19 @@
       <c r="Q8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="R8" s="15" t="s">
+      <c r="R8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="S8" s="15" t="s">
+      <c r="S8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="T8" s="15" t="s">
+      <c r="T8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="U8" s="15" t="s">
+      <c r="U8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="V8" s="15" t="s">
+      <c r="V8" s="13" t="s">
         <v>8</v>
       </c>
       <c r="W8" s="7" t="s">
@@ -1416,19 +1416,19 @@
       <c r="X8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Y8" s="15" t="s">
+      <c r="Y8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Z8" s="15" t="s">
+      <c r="Z8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="AA8" s="15" t="s">
+      <c r="AA8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AB8" s="15" t="s">
+      <c r="AB8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AC8" s="15" t="s">
+      <c r="AC8" s="13" t="s">
         <v>8</v>
       </c>
       <c r="AD8" s="7" t="s">
@@ -1437,19 +1437,19 @@
       <c r="AE8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AF8" s="15" t="s">
+      <c r="AF8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AG8" s="15" t="s">
+      <c r="AG8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="AH8" s="15" t="s">
+      <c r="AH8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AI8" s="15" t="s">
+      <c r="AI8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AJ8" s="15" t="s">
+      <c r="AJ8" s="13" t="s">
         <v>8</v>
       </c>
       <c r="AK8" s="7" t="s">
@@ -1458,19 +1458,19 @@
       <c r="AL8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AM8" s="15" t="s">
+      <c r="AM8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AN8" s="15" t="s">
+      <c r="AN8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="AO8" s="15" t="s">
+      <c r="AO8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AP8" s="15" t="s">
+      <c r="AP8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AQ8" s="15" t="s">
+      <c r="AQ8" s="13" t="s">
         <v>8</v>
       </c>
       <c r="AR8" s="7" t="s">
@@ -1479,176 +1479,176 @@
       <c r="AS8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AT8" s="15" t="s">
+      <c r="AT8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AU8" s="22" t="s">
+      <c r="AU8" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="3:47" x14ac:dyDescent="0.3">
-      <c r="C9" s="23"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="16">
+      <c r="C9" s="19"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="14">
         <f>DATE($V$6,$AD$6,1)-WEEKDAY(DATE($V$6,$AD$6,1),1)+1</f>
         <v>44682</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="14">
         <f>J9+1</f>
         <v>44683</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="14">
         <f t="shared" ref="L9:AU9" si="0">K9+1</f>
         <v>44684</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="14">
         <f t="shared" si="0"/>
         <v>44685</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="14">
         <f t="shared" si="0"/>
         <v>44686</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="14">
         <f t="shared" si="0"/>
         <v>44687</v>
       </c>
-      <c r="P9" s="16">
+      <c r="P9" s="14">
         <f t="shared" si="0"/>
         <v>44688</v>
       </c>
-      <c r="Q9" s="16">
+      <c r="Q9" s="14">
         <f t="shared" si="0"/>
         <v>44689</v>
       </c>
-      <c r="R9" s="16">
+      <c r="R9" s="14">
         <f t="shared" si="0"/>
         <v>44690</v>
       </c>
-      <c r="S9" s="16">
+      <c r="S9" s="14">
         <f t="shared" si="0"/>
         <v>44691</v>
       </c>
-      <c r="T9" s="16">
+      <c r="T9" s="14">
         <f t="shared" si="0"/>
         <v>44692</v>
       </c>
-      <c r="U9" s="16">
+      <c r="U9" s="14">
         <f t="shared" si="0"/>
         <v>44693</v>
       </c>
-      <c r="V9" s="16">
+      <c r="V9" s="14">
         <f t="shared" si="0"/>
         <v>44694</v>
       </c>
-      <c r="W9" s="16">
+      <c r="W9" s="14">
         <f t="shared" si="0"/>
         <v>44695</v>
       </c>
-      <c r="X9" s="16">
+      <c r="X9" s="14">
         <f t="shared" si="0"/>
         <v>44696</v>
       </c>
-      <c r="Y9" s="16">
+      <c r="Y9" s="14">
         <f t="shared" si="0"/>
         <v>44697</v>
       </c>
-      <c r="Z9" s="16">
+      <c r="Z9" s="14">
         <f t="shared" si="0"/>
         <v>44698</v>
       </c>
-      <c r="AA9" s="16">
+      <c r="AA9" s="14">
         <f t="shared" si="0"/>
         <v>44699</v>
       </c>
-      <c r="AB9" s="16">
+      <c r="AB9" s="14">
         <f t="shared" si="0"/>
         <v>44700</v>
       </c>
-      <c r="AC9" s="16">
+      <c r="AC9" s="14">
         <f t="shared" si="0"/>
         <v>44701</v>
       </c>
-      <c r="AD9" s="16">
+      <c r="AD9" s="14">
         <f t="shared" si="0"/>
         <v>44702</v>
       </c>
-      <c r="AE9" s="16">
+      <c r="AE9" s="14">
         <f t="shared" si="0"/>
         <v>44703</v>
       </c>
-      <c r="AF9" s="16">
+      <c r="AF9" s="14">
         <f t="shared" si="0"/>
         <v>44704</v>
       </c>
-      <c r="AG9" s="16">
+      <c r="AG9" s="14">
         <f t="shared" si="0"/>
         <v>44705</v>
       </c>
-      <c r="AH9" s="16">
+      <c r="AH9" s="14">
         <f t="shared" si="0"/>
         <v>44706</v>
       </c>
-      <c r="AI9" s="16">
+      <c r="AI9" s="14">
         <f t="shared" si="0"/>
         <v>44707</v>
       </c>
-      <c r="AJ9" s="16">
+      <c r="AJ9" s="14">
         <f t="shared" si="0"/>
         <v>44708</v>
       </c>
-      <c r="AK9" s="16">
+      <c r="AK9" s="14">
         <f t="shared" si="0"/>
         <v>44709</v>
       </c>
-      <c r="AL9" s="16">
+      <c r="AL9" s="14">
         <f t="shared" si="0"/>
         <v>44710</v>
       </c>
-      <c r="AM9" s="16">
+      <c r="AM9" s="14">
         <f t="shared" si="0"/>
         <v>44711</v>
       </c>
-      <c r="AN9" s="16">
+      <c r="AN9" s="14">
         <f t="shared" si="0"/>
         <v>44712</v>
       </c>
-      <c r="AO9" s="16">
+      <c r="AO9" s="14">
         <f t="shared" si="0"/>
         <v>44713</v>
       </c>
-      <c r="AP9" s="16">
+      <c r="AP9" s="14">
         <f t="shared" si="0"/>
         <v>44714</v>
       </c>
-      <c r="AQ9" s="16">
+      <c r="AQ9" s="14">
         <f t="shared" si="0"/>
         <v>44715</v>
       </c>
-      <c r="AR9" s="16">
+      <c r="AR9" s="14">
         <f t="shared" si="0"/>
         <v>44716</v>
       </c>
-      <c r="AS9" s="16">
+      <c r="AS9" s="14">
         <f t="shared" si="0"/>
         <v>44717</v>
       </c>
-      <c r="AT9" s="16">
+      <c r="AT9" s="14">
         <f t="shared" si="0"/>
         <v>44718</v>
       </c>
-      <c r="AU9" s="24">
+      <c r="AU9" s="20">
         <f t="shared" si="0"/>
         <v>44719</v>
       </c>
     </row>
     <row r="10" spans="3:47" x14ac:dyDescent="0.3">
-      <c r="C10" s="25">
+      <c r="C10" s="21">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1666,50 +1666,50 @@
       <c r="H10" s="8">
         <v>44699</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="25">
         <v>0.9</v>
       </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
-      <c r="AB10" s="37"/>
-      <c r="AC10" s="37"/>
-      <c r="AD10" s="37"/>
-      <c r="AE10" s="37"/>
-      <c r="AF10" s="37"/>
-      <c r="AG10" s="37"/>
-      <c r="AH10" s="37"/>
-      <c r="AI10" s="37"/>
-      <c r="AJ10" s="37"/>
-      <c r="AK10" s="37"/>
-      <c r="AL10" s="37"/>
-      <c r="AM10" s="37"/>
-      <c r="AN10" s="37"/>
-      <c r="AO10" s="37"/>
-      <c r="AP10" s="37"/>
-      <c r="AQ10" s="37"/>
-      <c r="AR10" s="37"/>
-      <c r="AS10" s="37"/>
-      <c r="AT10" s="37"/>
-      <c r="AU10" s="38"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="27"/>
+      <c r="AI10" s="27"/>
+      <c r="AJ10" s="27"/>
+      <c r="AK10" s="27"/>
+      <c r="AL10" s="27"/>
+      <c r="AM10" s="27"/>
+      <c r="AN10" s="27"/>
+      <c r="AO10" s="27"/>
+      <c r="AP10" s="27"/>
+      <c r="AQ10" s="27"/>
+      <c r="AR10" s="27"/>
+      <c r="AS10" s="27"/>
+      <c r="AT10" s="27"/>
+      <c r="AU10" s="28"/>
     </row>
     <row r="11" spans="3:47" x14ac:dyDescent="0.3">
-      <c r="C11" s="25">
+      <c r="C11" s="21">
         <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1727,50 +1727,50 @@
       <c r="H11" s="8">
         <v>44700</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11" s="25">
         <v>0.9</v>
       </c>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="37"/>
-      <c r="AB11" s="37"/>
-      <c r="AC11" s="37"/>
-      <c r="AD11" s="37"/>
-      <c r="AE11" s="37"/>
-      <c r="AF11" s="37"/>
-      <c r="AG11" s="37"/>
-      <c r="AH11" s="37"/>
-      <c r="AI11" s="37"/>
-      <c r="AJ11" s="37"/>
-      <c r="AK11" s="37"/>
-      <c r="AL11" s="37"/>
-      <c r="AM11" s="37"/>
-      <c r="AN11" s="37"/>
-      <c r="AO11" s="37"/>
-      <c r="AP11" s="37"/>
-      <c r="AQ11" s="37"/>
-      <c r="AR11" s="37"/>
-      <c r="AS11" s="37"/>
-      <c r="AT11" s="37"/>
-      <c r="AU11" s="38"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="27"/>
+      <c r="AH11" s="27"/>
+      <c r="AI11" s="27"/>
+      <c r="AJ11" s="27"/>
+      <c r="AK11" s="27"/>
+      <c r="AL11" s="27"/>
+      <c r="AM11" s="27"/>
+      <c r="AN11" s="27"/>
+      <c r="AO11" s="27"/>
+      <c r="AP11" s="27"/>
+      <c r="AQ11" s="27"/>
+      <c r="AR11" s="27"/>
+      <c r="AS11" s="27"/>
+      <c r="AT11" s="27"/>
+      <c r="AU11" s="28"/>
     </row>
     <row r="12" spans="3:47" x14ac:dyDescent="0.3">
-      <c r="C12" s="25">
+      <c r="C12" s="21">
         <v>3</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -1784,50 +1784,50 @@
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="35">
+      <c r="I12" s="25">
         <v>0.7</v>
       </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="37"/>
-      <c r="AE12" s="37"/>
-      <c r="AF12" s="37"/>
-      <c r="AG12" s="37"/>
-      <c r="AH12" s="37"/>
-      <c r="AI12" s="37"/>
-      <c r="AJ12" s="37"/>
-      <c r="AK12" s="37"/>
-      <c r="AL12" s="37"/>
-      <c r="AM12" s="37"/>
-      <c r="AN12" s="37"/>
-      <c r="AO12" s="37"/>
-      <c r="AP12" s="37"/>
-      <c r="AQ12" s="37"/>
-      <c r="AR12" s="37"/>
-      <c r="AS12" s="37"/>
-      <c r="AT12" s="37"/>
-      <c r="AU12" s="38"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="27"/>
+      <c r="AG12" s="27"/>
+      <c r="AH12" s="27"/>
+      <c r="AI12" s="27"/>
+      <c r="AJ12" s="27"/>
+      <c r="AK12" s="27"/>
+      <c r="AL12" s="27"/>
+      <c r="AM12" s="27"/>
+      <c r="AN12" s="27"/>
+      <c r="AO12" s="27"/>
+      <c r="AP12" s="27"/>
+      <c r="AQ12" s="27"/>
+      <c r="AR12" s="27"/>
+      <c r="AS12" s="27"/>
+      <c r="AT12" s="27"/>
+      <c r="AU12" s="28"/>
     </row>
     <row r="13" spans="3:47" x14ac:dyDescent="0.3">
-      <c r="C13" s="25">
+      <c r="C13" s="21">
         <v>4</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -1841,50 +1841,50 @@
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="35">
+      <c r="I13" s="25">
         <v>0.68</v>
       </c>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="37"/>
-      <c r="AC13" s="37"/>
-      <c r="AD13" s="37"/>
-      <c r="AE13" s="37"/>
-      <c r="AF13" s="37"/>
-      <c r="AG13" s="37"/>
-      <c r="AH13" s="37"/>
-      <c r="AI13" s="37"/>
-      <c r="AJ13" s="37"/>
-      <c r="AK13" s="37"/>
-      <c r="AL13" s="37"/>
-      <c r="AM13" s="37"/>
-      <c r="AN13" s="37"/>
-      <c r="AO13" s="37"/>
-      <c r="AP13" s="37"/>
-      <c r="AQ13" s="37"/>
-      <c r="AR13" s="37"/>
-      <c r="AS13" s="37"/>
-      <c r="AT13" s="37"/>
-      <c r="AU13" s="38"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27"/>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="27"/>
+      <c r="AH13" s="27"/>
+      <c r="AI13" s="27"/>
+      <c r="AJ13" s="27"/>
+      <c r="AK13" s="27"/>
+      <c r="AL13" s="27"/>
+      <c r="AM13" s="27"/>
+      <c r="AN13" s="27"/>
+      <c r="AO13" s="27"/>
+      <c r="AP13" s="27"/>
+      <c r="AQ13" s="27"/>
+      <c r="AR13" s="27"/>
+      <c r="AS13" s="27"/>
+      <c r="AT13" s="27"/>
+      <c r="AU13" s="28"/>
     </row>
     <row r="14" spans="3:47" x14ac:dyDescent="0.3">
-      <c r="C14" s="25">
+      <c r="C14" s="21">
         <v>5</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -1898,48 +1898,48 @@
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="37"/>
-      <c r="AB14" s="37"/>
-      <c r="AC14" s="37"/>
-      <c r="AD14" s="37"/>
-      <c r="AE14" s="37"/>
-      <c r="AF14" s="37"/>
-      <c r="AG14" s="37"/>
-      <c r="AH14" s="37"/>
-      <c r="AI14" s="37"/>
-      <c r="AJ14" s="37"/>
-      <c r="AK14" s="37"/>
-      <c r="AL14" s="37"/>
-      <c r="AM14" s="37"/>
-      <c r="AN14" s="37"/>
-      <c r="AO14" s="37"/>
-      <c r="AP14" s="37"/>
-      <c r="AQ14" s="37"/>
-      <c r="AR14" s="37"/>
-      <c r="AS14" s="37"/>
-      <c r="AT14" s="37"/>
-      <c r="AU14" s="38"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="27"/>
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="27"/>
+      <c r="AJ14" s="27"/>
+      <c r="AK14" s="27"/>
+      <c r="AL14" s="27"/>
+      <c r="AM14" s="27"/>
+      <c r="AN14" s="27"/>
+      <c r="AO14" s="27"/>
+      <c r="AP14" s="27"/>
+      <c r="AQ14" s="27"/>
+      <c r="AR14" s="27"/>
+      <c r="AS14" s="27"/>
+      <c r="AT14" s="27"/>
+      <c r="AU14" s="28"/>
     </row>
     <row r="15" spans="3:47" x14ac:dyDescent="0.3">
-      <c r="C15" s="25">
+      <c r="C15" s="21">
         <v>6</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -1957,48 +1957,48 @@
       <c r="H15" s="8">
         <v>44697</v>
       </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="37"/>
-      <c r="AB15" s="37"/>
-      <c r="AC15" s="37"/>
-      <c r="AD15" s="37"/>
-      <c r="AE15" s="37"/>
-      <c r="AF15" s="37"/>
-      <c r="AG15" s="37"/>
-      <c r="AH15" s="37"/>
-      <c r="AI15" s="37"/>
-      <c r="AJ15" s="37"/>
-      <c r="AK15" s="37"/>
-      <c r="AL15" s="37"/>
-      <c r="AM15" s="37"/>
-      <c r="AN15" s="37"/>
-      <c r="AO15" s="37"/>
-      <c r="AP15" s="37"/>
-      <c r="AQ15" s="37"/>
-      <c r="AR15" s="37"/>
-      <c r="AS15" s="37"/>
-      <c r="AT15" s="37"/>
-      <c r="AU15" s="38"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="27"/>
+      <c r="AH15" s="27"/>
+      <c r="AI15" s="27"/>
+      <c r="AJ15" s="27"/>
+      <c r="AK15" s="27"/>
+      <c r="AL15" s="27"/>
+      <c r="AM15" s="27"/>
+      <c r="AN15" s="27"/>
+      <c r="AO15" s="27"/>
+      <c r="AP15" s="27"/>
+      <c r="AQ15" s="27"/>
+      <c r="AR15" s="27"/>
+      <c r="AS15" s="27"/>
+      <c r="AT15" s="27"/>
+      <c r="AU15" s="28"/>
     </row>
     <row r="16" spans="3:47" x14ac:dyDescent="0.3">
-      <c r="C16" s="25">
+      <c r="C16" s="21">
         <v>7</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -2012,50 +2012,50 @@
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="35">
+      <c r="I16" s="25">
         <v>0.8</v>
       </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="37"/>
-      <c r="AB16" s="37"/>
-      <c r="AC16" s="37"/>
-      <c r="AD16" s="37"/>
-      <c r="AE16" s="37"/>
-      <c r="AF16" s="37"/>
-      <c r="AG16" s="37"/>
-      <c r="AH16" s="37"/>
-      <c r="AI16" s="37"/>
-      <c r="AJ16" s="37"/>
-      <c r="AK16" s="37"/>
-      <c r="AL16" s="37"/>
-      <c r="AM16" s="37"/>
-      <c r="AN16" s="37"/>
-      <c r="AO16" s="37"/>
-      <c r="AP16" s="37"/>
-      <c r="AQ16" s="37"/>
-      <c r="AR16" s="37"/>
-      <c r="AS16" s="37"/>
-      <c r="AT16" s="37"/>
-      <c r="AU16" s="38"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="27"/>
+      <c r="AI16" s="27"/>
+      <c r="AJ16" s="27"/>
+      <c r="AK16" s="27"/>
+      <c r="AL16" s="27"/>
+      <c r="AM16" s="27"/>
+      <c r="AN16" s="27"/>
+      <c r="AO16" s="27"/>
+      <c r="AP16" s="27"/>
+      <c r="AQ16" s="27"/>
+      <c r="AR16" s="27"/>
+      <c r="AS16" s="27"/>
+      <c r="AT16" s="27"/>
+      <c r="AU16" s="28"/>
     </row>
     <row r="17" spans="3:47" x14ac:dyDescent="0.3">
-      <c r="C17" s="25">
+      <c r="C17" s="21">
         <v>8</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -2069,48 +2069,48 @@
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="37"/>
-      <c r="AA17" s="37"/>
-      <c r="AB17" s="37"/>
-      <c r="AC17" s="37"/>
-      <c r="AD17" s="37"/>
-      <c r="AE17" s="37"/>
-      <c r="AF17" s="37"/>
-      <c r="AG17" s="37"/>
-      <c r="AH17" s="37"/>
-      <c r="AI17" s="37"/>
-      <c r="AJ17" s="37"/>
-      <c r="AK17" s="37"/>
-      <c r="AL17" s="37"/>
-      <c r="AM17" s="37"/>
-      <c r="AN17" s="37"/>
-      <c r="AO17" s="37"/>
-      <c r="AP17" s="37"/>
-      <c r="AQ17" s="37"/>
-      <c r="AR17" s="37"/>
-      <c r="AS17" s="37"/>
-      <c r="AT17" s="37"/>
-      <c r="AU17" s="38"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="27"/>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="27"/>
+      <c r="AJ17" s="27"/>
+      <c r="AK17" s="27"/>
+      <c r="AL17" s="27"/>
+      <c r="AM17" s="27"/>
+      <c r="AN17" s="27"/>
+      <c r="AO17" s="27"/>
+      <c r="AP17" s="27"/>
+      <c r="AQ17" s="27"/>
+      <c r="AR17" s="27"/>
+      <c r="AS17" s="27"/>
+      <c r="AT17" s="27"/>
+      <c r="AU17" s="28"/>
     </row>
     <row r="18" spans="3:47" x14ac:dyDescent="0.3">
-      <c r="C18" s="25">
+      <c r="C18" s="21">
         <v>9</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -2124,100 +2124,100 @@
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
-      <c r="AA18" s="37"/>
-      <c r="AB18" s="37"/>
-      <c r="AC18" s="37"/>
-      <c r="AD18" s="37"/>
-      <c r="AE18" s="37"/>
-      <c r="AF18" s="37"/>
-      <c r="AG18" s="37"/>
-      <c r="AH18" s="37"/>
-      <c r="AI18" s="37"/>
-      <c r="AJ18" s="37"/>
-      <c r="AK18" s="37"/>
-      <c r="AL18" s="37"/>
-      <c r="AM18" s="37"/>
-      <c r="AN18" s="37"/>
-      <c r="AO18" s="37"/>
-      <c r="AP18" s="37"/>
-      <c r="AQ18" s="37"/>
-      <c r="AR18" s="37"/>
-      <c r="AS18" s="37"/>
-      <c r="AT18" s="37"/>
-      <c r="AU18" s="38"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="27"/>
+      <c r="AH18" s="27"/>
+      <c r="AI18" s="27"/>
+      <c r="AJ18" s="27"/>
+      <c r="AK18" s="27"/>
+      <c r="AL18" s="27"/>
+      <c r="AM18" s="27"/>
+      <c r="AN18" s="27"/>
+      <c r="AO18" s="27"/>
+      <c r="AP18" s="27"/>
+      <c r="AQ18" s="27"/>
+      <c r="AR18" s="27"/>
+      <c r="AS18" s="27"/>
+      <c r="AT18" s="27"/>
+      <c r="AU18" s="28"/>
     </row>
     <row r="19" spans="3:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="26">
+      <c r="C19" s="22">
         <v>10</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="24">
         <v>44695</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="24">
         <v>44700</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="39"/>
-      <c r="X19" s="39"/>
-      <c r="Y19" s="39"/>
-      <c r="Z19" s="39"/>
-      <c r="AA19" s="39"/>
-      <c r="AB19" s="39"/>
-      <c r="AC19" s="39"/>
-      <c r="AD19" s="39"/>
-      <c r="AE19" s="39"/>
-      <c r="AF19" s="39"/>
-      <c r="AG19" s="39"/>
-      <c r="AH19" s="39"/>
-      <c r="AI19" s="39"/>
-      <c r="AJ19" s="39"/>
-      <c r="AK19" s="39"/>
-      <c r="AL19" s="39"/>
-      <c r="AM19" s="39"/>
-      <c r="AN19" s="39"/>
-      <c r="AO19" s="39"/>
-      <c r="AP19" s="39"/>
-      <c r="AQ19" s="39"/>
-      <c r="AR19" s="39"/>
-      <c r="AS19" s="39"/>
-      <c r="AT19" s="39"/>
-      <c r="AU19" s="40"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="29"/>
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="29"/>
+      <c r="AI19" s="29"/>
+      <c r="AJ19" s="29"/>
+      <c r="AK19" s="29"/>
+      <c r="AL19" s="29"/>
+      <c r="AM19" s="29"/>
+      <c r="AN19" s="29"/>
+      <c r="AO19" s="29"/>
+      <c r="AP19" s="29"/>
+      <c r="AQ19" s="29"/>
+      <c r="AR19" s="29"/>
+      <c r="AS19" s="29"/>
+      <c r="AT19" s="29"/>
+      <c r="AU19" s="30"/>
     </row>
     <row r="20" spans="3:47" x14ac:dyDescent="0.3">
       <c r="D20" s="2"/>
@@ -2274,13 +2274,19 @@
     <cfRule type="expression" dxfId="2" priority="10">
       <formula>AND(J$9&gt;=$G10,J$9&lt;=$H10)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="11">
+    <cfRule type="expression" dxfId="1" priority="11">
       <formula>J$9=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="12">
+    <cfRule type="expression" dxfId="0" priority="12">
       <formula>AND(J$9&gt;=$E10,J$9&lt;=$F10)</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tips" prompt="EstimatedStartTime" sqref="E8" xr:uid="{FE4634F1-1003-4D87-B122-FD3C90382899}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tips" prompt="EstimatedEndTime" sqref="F8" xr:uid="{2D3159DB-0F25-47E4-9BDE-9D88A3BB8C19}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tips" prompt="ActualStartTime" sqref="G8" xr:uid="{24F1DEAB-C4A2-41F4-AB60-C8CBC78F6102}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tips" prompt="ActualEndTime" sqref="H8" xr:uid="{B3641B5D-32B5-4613-BC32-FD44ACB3DE3A}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/ClusterTaining.xlsx
+++ b/ClusterTaining.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT PROJECTS\Shipin3x\Shipin3x\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/shipingx_cheng_intel_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034BFE85-C73D-477E-8326-32622EF00D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="336" documentId="13_ncr:1_{034BFE85-C73D-477E-8326-32622EF00D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EE340EF-220C-4287-8224-3A941551B458}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLAN" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="OSPL" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="33">
   <si>
     <t>CurrDate</t>
   </si>
@@ -102,6 +102,48 @@
     <t>Rate
 (%)</t>
   </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>Qiaobiao</t>
+  </si>
+  <si>
+    <t>SKX-D</t>
+  </si>
+  <si>
+    <t>BKCOSPL</t>
+  </si>
+  <si>
+    <t>SanityOSPL</t>
+  </si>
+  <si>
+    <t>SKX-H0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSPL SCOPE </t>
+  </si>
+  <si>
+    <t>Scope
+Name</t>
+  </si>
+  <si>
+    <t>HSX-EP</t>
+  </si>
+  <si>
+    <t>BDX-EP</t>
+  </si>
+  <si>
+    <t>BDX-EX</t>
+  </si>
+  <si>
+    <t>TCs
+TOTAL</t>
+  </si>
+  <si>
+    <t>ODC
+resource</t>
+  </si>
 </sst>
 </file>
 
@@ -148,7 +190,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,8 +231,14 @@
         <bgColor rgb="FF00B050"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -302,21 +350,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="9" tint="0.39994506668294322"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color theme="9" tint="0.39994506668294322"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -351,11 +384,190 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="9" tint="0.39991454817346722"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="9" tint="0.39991454817346722"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="9" tint="0.39991454817346722"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="9" tint="0.39991454817346722"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9" tint="0.39991454817346722"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="9" tint="0.39991454817346722"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="9" tint="0.39991454817346722"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color theme="9" tint="0.39991454817346722"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -365,7 +577,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -404,31 +615,57 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -444,29 +681,104 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill patternType="lightGray">
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color rgb="FFFF0000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
           <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -499,7 +811,8 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="gray125">
+        <patternFill patternType="gray0625">
+          <fgColor auto="1"/>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -516,6 +829,23 @@
         <bottom style="dotted">
           <color rgb="FF00B050"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
       </border>
     </dxf>
     <dxf>
@@ -546,6 +876,61 @@
         </right>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF0000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color rgb="FF00B050"/>
+        </left>
+        <right style="dotted">
+          <color rgb="FF00B050"/>
+        </right>
+        <top style="dotted">
+          <color rgb="FF00B050"/>
+        </top>
+        <bottom style="dotted">
+          <color rgb="FF00B050"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -584,6 +969,14 @@
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="26" fmlaLink="$AD$6" max="12" min="1" page="10" val="5"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="26" fmlaLink="$W$6" max="30000" page="10" val="2022"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="26" fmlaLink="$AE$6" max="12" min="1" page="10" val="5"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -662,6 +1055,111 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>30480</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>243840</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="Spinner 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>31</xdr:col>
+          <xdr:colOff>68580</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>32</xdr:col>
+          <xdr:colOff>68580</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2050" name="Spinner 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2050"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -957,10 +1455,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="C1:AU21"/>
+  <dimension ref="C1:AU22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -972,1265 +1470,1344 @@
     <col min="5" max="5" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="3.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="3.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="38" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="3.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="3.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="3.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="47" width="3.33203125" style="1" customWidth="1"/>
     <col min="48" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:47" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="36"/>
-      <c r="AQ1" s="36"/>
-      <c r="AR1" s="36"/>
-      <c r="AS1" s="36"/>
-      <c r="AT1" s="36"/>
-      <c r="AU1" s="36"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="47"/>
+      <c r="AQ1" s="47"/>
+      <c r="AR1" s="47"/>
+      <c r="AS1" s="47"/>
+      <c r="AT1" s="47"/>
+      <c r="AU1" s="47"/>
     </row>
     <row r="2" spans="3:47" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="36"/>
-      <c r="AQ2" s="36"/>
-      <c r="AR2" s="36"/>
-      <c r="AS2" s="36"/>
-      <c r="AT2" s="36"/>
-      <c r="AU2" s="36"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="47"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="47"/>
+      <c r="AL2" s="47"/>
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="47"/>
+      <c r="AO2" s="47"/>
+      <c r="AP2" s="47"/>
+      <c r="AQ2" s="47"/>
+      <c r="AR2" s="47"/>
+      <c r="AS2" s="47"/>
+      <c r="AT2" s="47"/>
+      <c r="AU2" s="47"/>
     </row>
     <row r="3" spans="3:47" x14ac:dyDescent="0.3">
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="38"/>
-      <c r="AO3" s="38"/>
-      <c r="AP3" s="38"/>
-      <c r="AQ3" s="38"/>
-      <c r="AR3" s="38"/>
-      <c r="AS3" s="38"/>
-      <c r="AT3" s="38"/>
-      <c r="AU3" s="39"/>
-    </row>
-    <row r="4" spans="3:47" x14ac:dyDescent="0.3">
-      <c r="C4" s="40"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="41"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="41"/>
-      <c r="AI4" s="41"/>
-      <c r="AJ4" s="41"/>
-      <c r="AK4" s="41"/>
-      <c r="AL4" s="41"/>
-      <c r="AM4" s="41"/>
-      <c r="AN4" s="41"/>
-      <c r="AO4" s="41"/>
-      <c r="AP4" s="41"/>
-      <c r="AQ4" s="41"/>
-      <c r="AR4" s="41"/>
-      <c r="AS4" s="41"/>
-      <c r="AT4" s="41"/>
-      <c r="AU4" s="42"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="49"/>
+      <c r="AQ3" s="49"/>
+      <c r="AR3" s="49"/>
+      <c r="AS3" s="49"/>
+      <c r="AT3" s="49"/>
+      <c r="AU3" s="50"/>
+    </row>
+    <row r="4" spans="3:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="51"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="52"/>
+      <c r="AO4" s="52"/>
+      <c r="AP4" s="52"/>
+      <c r="AQ4" s="52"/>
+      <c r="AR4" s="52"/>
+      <c r="AS4" s="52"/>
+      <c r="AT4" s="52"/>
+      <c r="AU4" s="53"/>
     </row>
     <row r="5" spans="3:47" x14ac:dyDescent="0.3">
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="5">
+      <c r="D5" s="55"/>
+      <c r="E5" s="33">
         <f ca="1">TODAY()</f>
-        <v>44697</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
-      <c r="AH5" s="6"/>
-      <c r="AI5" s="6"/>
-      <c r="AJ5" s="6"/>
-      <c r="AK5" s="6"/>
-      <c r="AL5" s="6"/>
-      <c r="AM5" s="6"/>
-      <c r="AN5" s="6"/>
-      <c r="AO5" s="6"/>
-      <c r="AP5" s="6"/>
-      <c r="AQ5" s="6"/>
-      <c r="AR5" s="6"/>
-      <c r="AS5" s="6"/>
-      <c r="AT5" s="6"/>
-      <c r="AU5" s="16"/>
+        <v>44698</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="30"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="5"/>
+      <c r="AR5" s="5"/>
+      <c r="AS5" s="5"/>
+      <c r="AT5" s="5"/>
+      <c r="AU5" s="15"/>
     </row>
     <row r="6" spans="3:47" x14ac:dyDescent="0.3">
-      <c r="C6" s="15"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="35" t="s">
+      <c r="C6" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="57"/>
+      <c r="E6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="U6" s="35"/>
-      <c r="V6" s="34">
+      <c r="U6" s="46"/>
+      <c r="V6" s="45">
         <v>2022</v>
       </c>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="35" t="s">
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="35"/>
-      <c r="AD6" s="10">
+      <c r="AB6" s="46"/>
+      <c r="AC6" s="46"/>
+      <c r="AD6" s="9">
         <v>5</v>
       </c>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
-      <c r="AH6" s="6"/>
-      <c r="AI6" s="6"/>
-      <c r="AJ6" s="6"/>
-      <c r="AK6" s="6"/>
-      <c r="AL6" s="6"/>
-      <c r="AM6" s="6"/>
-      <c r="AN6" s="6"/>
-      <c r="AO6" s="6"/>
-      <c r="AP6" s="6"/>
-      <c r="AQ6" s="6"/>
-      <c r="AR6" s="6"/>
-      <c r="AS6" s="6"/>
-      <c r="AT6" s="6"/>
-      <c r="AU6" s="16"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="5"/>
+      <c r="AU6" s="15"/>
     </row>
     <row r="7" spans="3:47" x14ac:dyDescent="0.3">
-      <c r="C7" s="15"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
-      <c r="AM7" s="6"/>
-      <c r="AN7" s="6"/>
-      <c r="AO7" s="6"/>
-      <c r="AP7" s="6"/>
-      <c r="AQ7" s="6"/>
-      <c r="AR7" s="6"/>
-      <c r="AS7" s="6"/>
-      <c r="AT7" s="6"/>
-      <c r="AU7" s="16"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="5"/>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="5"/>
+      <c r="AU7" s="15"/>
     </row>
     <row r="8" spans="3:47" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="M8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="13" t="s">
+      <c r="N8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="13" t="s">
+      <c r="O8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="P8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="Q8" s="7" t="s">
+      <c r="Q8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="R8" s="13" t="s">
+      <c r="R8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="S8" s="13" t="s">
+      <c r="S8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="T8" s="13" t="s">
+      <c r="T8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="U8" s="13" t="s">
+      <c r="U8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="V8" s="13" t="s">
+      <c r="V8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="W8" s="7" t="s">
+      <c r="W8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="X8" s="7" t="s">
+      <c r="X8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="Y8" s="13" t="s">
+      <c r="Y8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="Z8" s="13" t="s">
+      <c r="Z8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AA8" s="13" t="s">
+      <c r="AA8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AB8" s="13" t="s">
+      <c r="AB8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AC8" s="13" t="s">
+      <c r="AC8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="AD8" s="7" t="s">
+      <c r="AD8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AE8" s="7" t="s">
+      <c r="AE8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AF8" s="13" t="s">
+      <c r="AF8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AG8" s="13" t="s">
+      <c r="AG8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AH8" s="13" t="s">
+      <c r="AH8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AI8" s="13" t="s">
+      <c r="AI8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AJ8" s="13" t="s">
+      <c r="AJ8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="AK8" s="7" t="s">
+      <c r="AK8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AL8" s="7" t="s">
+      <c r="AL8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AM8" s="13" t="s">
+      <c r="AM8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AN8" s="13" t="s">
+      <c r="AN8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AO8" s="13" t="s">
+      <c r="AO8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AP8" s="13" t="s">
+      <c r="AP8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AQ8" s="13" t="s">
+      <c r="AQ8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="AR8" s="7" t="s">
+      <c r="AR8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AS8" s="7" t="s">
+      <c r="AS8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AT8" s="13" t="s">
+      <c r="AT8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AU8" s="18" t="s">
+      <c r="AU8" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="3:47" x14ac:dyDescent="0.3">
-      <c r="C9" s="19"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="14">
+      <c r="C9" s="18"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="13">
         <f>DATE($V$6,$AD$6,1)-WEEKDAY(DATE($V$6,$AD$6,1),1)+1</f>
         <v>44682</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="13">
         <f>J9+1</f>
         <v>44683</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="13">
         <f t="shared" ref="L9:AU9" si="0">K9+1</f>
         <v>44684</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="13">
         <f t="shared" si="0"/>
         <v>44685</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="13">
         <f t="shared" si="0"/>
         <v>44686</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="13">
         <f t="shared" si="0"/>
         <v>44687</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="13">
         <f t="shared" si="0"/>
         <v>44688</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="13">
         <f t="shared" si="0"/>
         <v>44689</v>
       </c>
-      <c r="R9" s="14">
+      <c r="R9" s="13">
         <f t="shared" si="0"/>
         <v>44690</v>
       </c>
-      <c r="S9" s="14">
+      <c r="S9" s="13">
         <f t="shared" si="0"/>
         <v>44691</v>
       </c>
-      <c r="T9" s="14">
+      <c r="T9" s="13">
         <f t="shared" si="0"/>
         <v>44692</v>
       </c>
-      <c r="U9" s="14">
+      <c r="U9" s="13">
         <f t="shared" si="0"/>
         <v>44693</v>
       </c>
-      <c r="V9" s="14">
+      <c r="V9" s="13">
         <f t="shared" si="0"/>
         <v>44694</v>
       </c>
-      <c r="W9" s="14">
+      <c r="W9" s="13">
         <f t="shared" si="0"/>
         <v>44695</v>
       </c>
-      <c r="X9" s="14">
+      <c r="X9" s="13">
         <f t="shared" si="0"/>
         <v>44696</v>
       </c>
-      <c r="Y9" s="14">
+      <c r="Y9" s="13">
         <f t="shared" si="0"/>
         <v>44697</v>
       </c>
-      <c r="Z9" s="14">
+      <c r="Z9" s="13">
         <f t="shared" si="0"/>
         <v>44698</v>
       </c>
-      <c r="AA9" s="14">
+      <c r="AA9" s="13">
         <f t="shared" si="0"/>
         <v>44699</v>
       </c>
-      <c r="AB9" s="14">
+      <c r="AB9" s="13">
         <f t="shared" si="0"/>
         <v>44700</v>
       </c>
-      <c r="AC9" s="14">
+      <c r="AC9" s="13">
         <f t="shared" si="0"/>
         <v>44701</v>
       </c>
-      <c r="AD9" s="14">
+      <c r="AD9" s="13">
         <f t="shared" si="0"/>
         <v>44702</v>
       </c>
-      <c r="AE9" s="14">
+      <c r="AE9" s="13">
         <f t="shared" si="0"/>
         <v>44703</v>
       </c>
-      <c r="AF9" s="14">
+      <c r="AF9" s="13">
         <f t="shared" si="0"/>
         <v>44704</v>
       </c>
-      <c r="AG9" s="14">
+      <c r="AG9" s="13">
         <f t="shared" si="0"/>
         <v>44705</v>
       </c>
-      <c r="AH9" s="14">
+      <c r="AH9" s="13">
         <f t="shared" si="0"/>
         <v>44706</v>
       </c>
-      <c r="AI9" s="14">
+      <c r="AI9" s="13">
         <f t="shared" si="0"/>
         <v>44707</v>
       </c>
-      <c r="AJ9" s="14">
+      <c r="AJ9" s="13">
         <f t="shared" si="0"/>
         <v>44708</v>
       </c>
-      <c r="AK9" s="14">
+      <c r="AK9" s="13">
         <f t="shared" si="0"/>
         <v>44709</v>
       </c>
-      <c r="AL9" s="14">
+      <c r="AL9" s="13">
         <f t="shared" si="0"/>
         <v>44710</v>
       </c>
-      <c r="AM9" s="14">
+      <c r="AM9" s="13">
         <f t="shared" si="0"/>
         <v>44711</v>
       </c>
-      <c r="AN9" s="14">
+      <c r="AN9" s="13">
         <f t="shared" si="0"/>
         <v>44712</v>
       </c>
-      <c r="AO9" s="14">
+      <c r="AO9" s="13">
         <f t="shared" si="0"/>
         <v>44713</v>
       </c>
-      <c r="AP9" s="14">
+      <c r="AP9" s="13">
         <f t="shared" si="0"/>
         <v>44714</v>
       </c>
-      <c r="AQ9" s="14">
+      <c r="AQ9" s="13">
         <f t="shared" si="0"/>
         <v>44715</v>
       </c>
-      <c r="AR9" s="14">
+      <c r="AR9" s="13">
         <f t="shared" si="0"/>
         <v>44716</v>
       </c>
-      <c r="AS9" s="14">
+      <c r="AS9" s="13">
         <f t="shared" si="0"/>
         <v>44717</v>
       </c>
-      <c r="AT9" s="14">
+      <c r="AT9" s="13">
         <f t="shared" si="0"/>
         <v>44718</v>
       </c>
-      <c r="AU9" s="20">
+      <c r="AU9" s="19">
         <f t="shared" si="0"/>
         <v>44719</v>
       </c>
     </row>
     <row r="10" spans="3:47" x14ac:dyDescent="0.3">
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>44657</v>
       </c>
-      <c r="F10" s="8">
-        <v>44700</v>
-      </c>
-      <c r="G10" s="8">
+      <c r="F10" s="7">
+        <v>44682</v>
+      </c>
+      <c r="G10" s="7">
         <v>44667</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <v>44699</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="23">
         <v>0.9</v>
       </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="27"/>
-      <c r="AC10" s="27"/>
-      <c r="AD10" s="27"/>
-      <c r="AE10" s="27"/>
-      <c r="AF10" s="27"/>
-      <c r="AG10" s="27"/>
-      <c r="AH10" s="27"/>
-      <c r="AI10" s="27"/>
-      <c r="AJ10" s="27"/>
-      <c r="AK10" s="27"/>
-      <c r="AL10" s="27"/>
-      <c r="AM10" s="27"/>
-      <c r="AN10" s="27"/>
-      <c r="AO10" s="27"/>
-      <c r="AP10" s="27"/>
-      <c r="AQ10" s="27"/>
-      <c r="AR10" s="27"/>
-      <c r="AS10" s="27"/>
-      <c r="AT10" s="27"/>
-      <c r="AU10" s="28"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="25"/>
+      <c r="AE10" s="25"/>
+      <c r="AF10" s="25"/>
+      <c r="AG10" s="25"/>
+      <c r="AH10" s="25"/>
+      <c r="AI10" s="25"/>
+      <c r="AJ10" s="25"/>
+      <c r="AK10" s="25"/>
+      <c r="AL10" s="25"/>
+      <c r="AM10" s="25"/>
+      <c r="AN10" s="25"/>
+      <c r="AO10" s="25"/>
+      <c r="AP10" s="25"/>
+      <c r="AQ10" s="25"/>
+      <c r="AR10" s="25"/>
+      <c r="AS10" s="25"/>
+      <c r="AT10" s="25"/>
+      <c r="AU10" s="26"/>
     </row>
     <row r="11" spans="3:47" x14ac:dyDescent="0.3">
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="9">
-        <v>44695</v>
-      </c>
-      <c r="F11" s="9">
+      <c r="E11" s="7">
+        <v>44658</v>
+      </c>
+      <c r="F11" s="7">
+        <v>44683</v>
+      </c>
+      <c r="G11" s="7">
+        <v>44697</v>
+      </c>
+      <c r="H11" s="7">
         <v>44700</v>
       </c>
-      <c r="G11" s="8">
-        <v>44697</v>
-      </c>
-      <c r="H11" s="8">
-        <v>44700</v>
-      </c>
-      <c r="I11" s="25">
+      <c r="I11" s="23">
         <v>0.9</v>
       </c>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="27"/>
-      <c r="AC11" s="27"/>
-      <c r="AD11" s="27"/>
-      <c r="AE11" s="27"/>
-      <c r="AF11" s="27"/>
-      <c r="AG11" s="27"/>
-      <c r="AH11" s="27"/>
-      <c r="AI11" s="27"/>
-      <c r="AJ11" s="27"/>
-      <c r="AK11" s="27"/>
-      <c r="AL11" s="27"/>
-      <c r="AM11" s="27"/>
-      <c r="AN11" s="27"/>
-      <c r="AO11" s="27"/>
-      <c r="AP11" s="27"/>
-      <c r="AQ11" s="27"/>
-      <c r="AR11" s="27"/>
-      <c r="AS11" s="27"/>
-      <c r="AT11" s="27"/>
-      <c r="AU11" s="28"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="25"/>
+      <c r="AE11" s="25"/>
+      <c r="AF11" s="25"/>
+      <c r="AG11" s="25"/>
+      <c r="AH11" s="25"/>
+      <c r="AI11" s="25"/>
+      <c r="AJ11" s="25"/>
+      <c r="AK11" s="25"/>
+      <c r="AL11" s="25"/>
+      <c r="AM11" s="25"/>
+      <c r="AN11" s="25"/>
+      <c r="AO11" s="25"/>
+      <c r="AP11" s="25"/>
+      <c r="AQ11" s="25"/>
+      <c r="AR11" s="25"/>
+      <c r="AS11" s="25"/>
+      <c r="AT11" s="25"/>
+      <c r="AU11" s="26"/>
     </row>
     <row r="12" spans="3:47" x14ac:dyDescent="0.3">
-      <c r="C12" s="21">
+      <c r="C12" s="20">
         <v>3</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="9">
-        <v>44695</v>
-      </c>
-      <c r="F12" s="9">
-        <v>44700</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="25">
+      <c r="E12" s="7">
+        <v>44659</v>
+      </c>
+      <c r="F12" s="7">
+        <v>44684</v>
+      </c>
+      <c r="G12" s="7">
+        <v>44697</v>
+      </c>
+      <c r="H12" s="7">
+        <v>44699</v>
+      </c>
+      <c r="I12" s="23">
         <v>0.7</v>
       </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="27"/>
-      <c r="AC12" s="27"/>
-      <c r="AD12" s="27"/>
-      <c r="AE12" s="27"/>
-      <c r="AF12" s="27"/>
-      <c r="AG12" s="27"/>
-      <c r="AH12" s="27"/>
-      <c r="AI12" s="27"/>
-      <c r="AJ12" s="27"/>
-      <c r="AK12" s="27"/>
-      <c r="AL12" s="27"/>
-      <c r="AM12" s="27"/>
-      <c r="AN12" s="27"/>
-      <c r="AO12" s="27"/>
-      <c r="AP12" s="27"/>
-      <c r="AQ12" s="27"/>
-      <c r="AR12" s="27"/>
-      <c r="AS12" s="27"/>
-      <c r="AT12" s="27"/>
-      <c r="AU12" s="28"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="25"/>
+      <c r="AE12" s="25"/>
+      <c r="AF12" s="25"/>
+      <c r="AG12" s="25"/>
+      <c r="AH12" s="25"/>
+      <c r="AI12" s="25"/>
+      <c r="AJ12" s="25"/>
+      <c r="AK12" s="25"/>
+      <c r="AL12" s="25"/>
+      <c r="AM12" s="25"/>
+      <c r="AN12" s="25"/>
+      <c r="AO12" s="25"/>
+      <c r="AP12" s="25"/>
+      <c r="AQ12" s="25"/>
+      <c r="AR12" s="25"/>
+      <c r="AS12" s="25"/>
+      <c r="AT12" s="25"/>
+      <c r="AU12" s="26"/>
     </row>
     <row r="13" spans="3:47" x14ac:dyDescent="0.3">
-      <c r="C13" s="21">
+      <c r="C13" s="20">
         <v>4</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="9">
-        <v>44695</v>
-      </c>
-      <c r="F13" s="9">
+      <c r="E13" s="7">
+        <v>44660</v>
+      </c>
+      <c r="F13" s="7">
+        <v>44685</v>
+      </c>
+      <c r="G13" s="7">
+        <v>44698</v>
+      </c>
+      <c r="H13" s="7">
         <v>44700</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="25">
+      <c r="I13" s="23">
         <v>0.68</v>
       </c>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="27"/>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="27"/>
-      <c r="AE13" s="27"/>
-      <c r="AF13" s="27"/>
-      <c r="AG13" s="27"/>
-      <c r="AH13" s="27"/>
-      <c r="AI13" s="27"/>
-      <c r="AJ13" s="27"/>
-      <c r="AK13" s="27"/>
-      <c r="AL13" s="27"/>
-      <c r="AM13" s="27"/>
-      <c r="AN13" s="27"/>
-      <c r="AO13" s="27"/>
-      <c r="AP13" s="27"/>
-      <c r="AQ13" s="27"/>
-      <c r="AR13" s="27"/>
-      <c r="AS13" s="27"/>
-      <c r="AT13" s="27"/>
-      <c r="AU13" s="28"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="25"/>
+      <c r="AF13" s="25"/>
+      <c r="AG13" s="25"/>
+      <c r="AH13" s="25"/>
+      <c r="AI13" s="25"/>
+      <c r="AJ13" s="25"/>
+      <c r="AK13" s="25"/>
+      <c r="AL13" s="25"/>
+      <c r="AM13" s="25"/>
+      <c r="AN13" s="25"/>
+      <c r="AO13" s="25"/>
+      <c r="AP13" s="25"/>
+      <c r="AQ13" s="25"/>
+      <c r="AR13" s="25"/>
+      <c r="AS13" s="25"/>
+      <c r="AT13" s="25"/>
+      <c r="AU13" s="26"/>
     </row>
     <row r="14" spans="3:47" x14ac:dyDescent="0.3">
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <v>5</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="9">
-        <v>44700</v>
-      </c>
-      <c r="F14" s="9">
-        <v>44710</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="27"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="27"/>
-      <c r="AB14" s="27"/>
-      <c r="AC14" s="27"/>
-      <c r="AD14" s="27"/>
-      <c r="AE14" s="27"/>
-      <c r="AF14" s="27"/>
-      <c r="AG14" s="27"/>
-      <c r="AH14" s="27"/>
-      <c r="AI14" s="27"/>
-      <c r="AJ14" s="27"/>
-      <c r="AK14" s="27"/>
-      <c r="AL14" s="27"/>
-      <c r="AM14" s="27"/>
-      <c r="AN14" s="27"/>
-      <c r="AO14" s="27"/>
-      <c r="AP14" s="27"/>
-      <c r="AQ14" s="27"/>
-      <c r="AR14" s="27"/>
-      <c r="AS14" s="27"/>
-      <c r="AT14" s="27"/>
-      <c r="AU14" s="28"/>
+      <c r="E14" s="7">
+        <v>44697</v>
+      </c>
+      <c r="F14" s="7">
+        <v>44697</v>
+      </c>
+      <c r="G14" s="7">
+        <v>44667</v>
+      </c>
+      <c r="H14" s="7">
+        <v>44697</v>
+      </c>
+      <c r="I14" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="25"/>
+      <c r="AH14" s="25"/>
+      <c r="AI14" s="25"/>
+      <c r="AJ14" s="25"/>
+      <c r="AK14" s="25"/>
+      <c r="AL14" s="25"/>
+      <c r="AM14" s="25"/>
+      <c r="AN14" s="25"/>
+      <c r="AO14" s="25"/>
+      <c r="AP14" s="25"/>
+      <c r="AQ14" s="25"/>
+      <c r="AR14" s="25"/>
+      <c r="AS14" s="25"/>
+      <c r="AT14" s="25"/>
+      <c r="AU14" s="26"/>
     </row>
     <row r="15" spans="3:47" x14ac:dyDescent="0.3">
-      <c r="C15" s="21">
+      <c r="C15" s="20">
         <v>6</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="9">
-        <v>44695</v>
-      </c>
-      <c r="F15" s="9">
-        <v>44700</v>
-      </c>
-      <c r="G15" s="8">
-        <v>44636</v>
-      </c>
-      <c r="H15" s="8">
-        <v>44697</v>
-      </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="27"/>
-      <c r="AF15" s="27"/>
-      <c r="AG15" s="27"/>
-      <c r="AH15" s="27"/>
-      <c r="AI15" s="27"/>
-      <c r="AJ15" s="27"/>
-      <c r="AK15" s="27"/>
-      <c r="AL15" s="27"/>
-      <c r="AM15" s="27"/>
-      <c r="AN15" s="27"/>
-      <c r="AO15" s="27"/>
-      <c r="AP15" s="27"/>
-      <c r="AQ15" s="27"/>
-      <c r="AR15" s="27"/>
-      <c r="AS15" s="27"/>
-      <c r="AT15" s="27"/>
-      <c r="AU15" s="28"/>
+      <c r="E15" s="7">
+        <v>44661</v>
+      </c>
+      <c r="F15" s="7">
+        <v>44686</v>
+      </c>
+      <c r="G15" s="7">
+        <v>44699</v>
+      </c>
+      <c r="H15" s="7">
+        <v>44701</v>
+      </c>
+      <c r="I15" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="25"/>
+      <c r="AG15" s="25"/>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="25"/>
+      <c r="AJ15" s="25"/>
+      <c r="AK15" s="25"/>
+      <c r="AL15" s="25"/>
+      <c r="AM15" s="25"/>
+      <c r="AN15" s="25"/>
+      <c r="AO15" s="25"/>
+      <c r="AP15" s="25"/>
+      <c r="AQ15" s="25"/>
+      <c r="AR15" s="25"/>
+      <c r="AS15" s="25"/>
+      <c r="AT15" s="25"/>
+      <c r="AU15" s="26"/>
     </row>
     <row r="16" spans="3:47" x14ac:dyDescent="0.3">
-      <c r="C16" s="21">
+      <c r="C16" s="20">
         <v>7</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="9">
-        <v>44695</v>
-      </c>
-      <c r="F16" s="9">
+      <c r="E16" s="7">
+        <v>44662</v>
+      </c>
+      <c r="F16" s="7">
+        <v>44687</v>
+      </c>
+      <c r="G16" s="7">
         <v>44700</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="25">
-        <v>0.8</v>
-      </c>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="27"/>
-      <c r="AF16" s="27"/>
-      <c r="AG16" s="27"/>
-      <c r="AH16" s="27"/>
-      <c r="AI16" s="27"/>
-      <c r="AJ16" s="27"/>
-      <c r="AK16" s="27"/>
-      <c r="AL16" s="27"/>
-      <c r="AM16" s="27"/>
-      <c r="AN16" s="27"/>
-      <c r="AO16" s="27"/>
-      <c r="AP16" s="27"/>
-      <c r="AQ16" s="27"/>
-      <c r="AR16" s="27"/>
-      <c r="AS16" s="27"/>
-      <c r="AT16" s="27"/>
-      <c r="AU16" s="28"/>
+      <c r="H16" s="7">
+        <v>44702</v>
+      </c>
+      <c r="I16" s="23">
+        <v>0.12</v>
+      </c>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="25"/>
+      <c r="AI16" s="25"/>
+      <c r="AJ16" s="25"/>
+      <c r="AK16" s="25"/>
+      <c r="AL16" s="25"/>
+      <c r="AM16" s="25"/>
+      <c r="AN16" s="25"/>
+      <c r="AO16" s="25"/>
+      <c r="AP16" s="25"/>
+      <c r="AQ16" s="25"/>
+      <c r="AR16" s="25"/>
+      <c r="AS16" s="25"/>
+      <c r="AT16" s="25"/>
+      <c r="AU16" s="26"/>
     </row>
     <row r="17" spans="3:47" x14ac:dyDescent="0.3">
-      <c r="C17" s="21">
+      <c r="C17" s="20">
         <v>8</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="9">
-        <v>44695</v>
-      </c>
-      <c r="F17" s="9">
-        <v>44700</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="27"/>
-      <c r="AE17" s="27"/>
-      <c r="AF17" s="27"/>
-      <c r="AG17" s="27"/>
-      <c r="AH17" s="27"/>
-      <c r="AI17" s="27"/>
-      <c r="AJ17" s="27"/>
-      <c r="AK17" s="27"/>
-      <c r="AL17" s="27"/>
-      <c r="AM17" s="27"/>
-      <c r="AN17" s="27"/>
-      <c r="AO17" s="27"/>
-      <c r="AP17" s="27"/>
-      <c r="AQ17" s="27"/>
-      <c r="AR17" s="27"/>
-      <c r="AS17" s="27"/>
-      <c r="AT17" s="27"/>
-      <c r="AU17" s="28"/>
+      <c r="E17" s="7">
+        <v>44663</v>
+      </c>
+      <c r="F17" s="7">
+        <v>44688</v>
+      </c>
+      <c r="G17" s="7">
+        <v>44701</v>
+      </c>
+      <c r="H17" s="7">
+        <v>44703</v>
+      </c>
+      <c r="I17" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="25"/>
+      <c r="AF17" s="25"/>
+      <c r="AG17" s="25"/>
+      <c r="AH17" s="25"/>
+      <c r="AI17" s="25"/>
+      <c r="AJ17" s="25"/>
+      <c r="AK17" s="25"/>
+      <c r="AL17" s="25"/>
+      <c r="AM17" s="25"/>
+      <c r="AN17" s="25"/>
+      <c r="AO17" s="25"/>
+      <c r="AP17" s="25"/>
+      <c r="AQ17" s="25"/>
+      <c r="AR17" s="25"/>
+      <c r="AS17" s="25"/>
+      <c r="AT17" s="25"/>
+      <c r="AU17" s="26"/>
     </row>
     <row r="18" spans="3:47" x14ac:dyDescent="0.3">
-      <c r="C18" s="21">
+      <c r="C18" s="20">
         <v>9</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="7">
+        <v>44664</v>
+      </c>
+      <c r="F18" s="7">
+        <v>44689</v>
+      </c>
+      <c r="G18" s="7">
+        <v>44702</v>
+      </c>
+      <c r="H18" s="7">
+        <v>44704</v>
+      </c>
+      <c r="I18" s="23">
+        <v>0.04</v>
+      </c>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="25"/>
+      <c r="AE18" s="25"/>
+      <c r="AF18" s="25"/>
+      <c r="AG18" s="25"/>
+      <c r="AH18" s="25"/>
+      <c r="AI18" s="25"/>
+      <c r="AJ18" s="25"/>
+      <c r="AK18" s="25"/>
+      <c r="AL18" s="25"/>
+      <c r="AM18" s="25"/>
+      <c r="AN18" s="25"/>
+      <c r="AO18" s="25"/>
+      <c r="AP18" s="25"/>
+      <c r="AQ18" s="25"/>
+      <c r="AR18" s="25"/>
+      <c r="AS18" s="25"/>
+      <c r="AT18" s="25"/>
+      <c r="AU18" s="26"/>
+    </row>
+    <row r="19" spans="3:47" x14ac:dyDescent="0.3">
+      <c r="C19" s="20">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="7">
+        <v>44665</v>
+      </c>
+      <c r="F19" s="8">
+        <v>44700</v>
+      </c>
+      <c r="G19" s="7">
+        <v>44703</v>
+      </c>
+      <c r="H19" s="7">
+        <v>44705</v>
+      </c>
+      <c r="I19" s="23">
+        <v>0.32</v>
+      </c>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="25"/>
+      <c r="AD19" s="25"/>
+      <c r="AE19" s="25"/>
+      <c r="AF19" s="25"/>
+      <c r="AG19" s="25"/>
+      <c r="AH19" s="25"/>
+      <c r="AI19" s="25"/>
+      <c r="AJ19" s="25"/>
+      <c r="AK19" s="25"/>
+      <c r="AL19" s="25"/>
+      <c r="AM19" s="25"/>
+      <c r="AN19" s="25"/>
+      <c r="AO19" s="25"/>
+      <c r="AP19" s="25"/>
+      <c r="AQ19" s="25"/>
+      <c r="AR19" s="25"/>
+      <c r="AS19" s="25"/>
+      <c r="AT19" s="25"/>
+      <c r="AU19" s="26"/>
+    </row>
+    <row r="20" spans="3:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="20">
+        <v>11</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="22">
         <v>44695</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F20" s="22">
         <v>44700</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="27"/>
-      <c r="AB18" s="27"/>
-      <c r="AC18" s="27"/>
-      <c r="AD18" s="27"/>
-      <c r="AE18" s="27"/>
-      <c r="AF18" s="27"/>
-      <c r="AG18" s="27"/>
-      <c r="AH18" s="27"/>
-      <c r="AI18" s="27"/>
-      <c r="AJ18" s="27"/>
-      <c r="AK18" s="27"/>
-      <c r="AL18" s="27"/>
-      <c r="AM18" s="27"/>
-      <c r="AN18" s="27"/>
-      <c r="AO18" s="27"/>
-      <c r="AP18" s="27"/>
-      <c r="AQ18" s="27"/>
-      <c r="AR18" s="27"/>
-      <c r="AS18" s="27"/>
-      <c r="AT18" s="27"/>
-      <c r="AU18" s="28"/>
-    </row>
-    <row r="19" spans="3:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="22">
-        <v>10</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="24">
-        <v>44695</v>
-      </c>
-      <c r="F19" s="24">
-        <v>44700</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
-      <c r="AE19" s="29"/>
-      <c r="AF19" s="29"/>
-      <c r="AG19" s="29"/>
-      <c r="AH19" s="29"/>
-      <c r="AI19" s="29"/>
-      <c r="AJ19" s="29"/>
-      <c r="AK19" s="29"/>
-      <c r="AL19" s="29"/>
-      <c r="AM19" s="29"/>
-      <c r="AN19" s="29"/>
-      <c r="AO19" s="29"/>
-      <c r="AP19" s="29"/>
-      <c r="AQ19" s="29"/>
-      <c r="AR19" s="29"/>
-      <c r="AS19" s="29"/>
-      <c r="AT19" s="29"/>
-      <c r="AU19" s="30"/>
-    </row>
-    <row r="20" spans="3:47" x14ac:dyDescent="0.3">
-      <c r="D20" s="2"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="G20" s="7">
+        <v>44704</v>
+      </c>
+      <c r="H20" s="7">
+        <v>44706</v>
+      </c>
+      <c r="I20" s="24">
+        <v>0.87</v>
+      </c>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="27"/>
+      <c r="AG20" s="27"/>
+      <c r="AH20" s="27"/>
+      <c r="AI20" s="27"/>
+      <c r="AJ20" s="27"/>
+      <c r="AK20" s="27"/>
+      <c r="AL20" s="27"/>
+      <c r="AM20" s="27"/>
+      <c r="AN20" s="27"/>
+      <c r="AO20" s="27"/>
+      <c r="AP20" s="27"/>
+      <c r="AQ20" s="27"/>
+      <c r="AR20" s="27"/>
+      <c r="AS20" s="27"/>
+      <c r="AT20" s="27"/>
+      <c r="AU20" s="28"/>
     </row>
     <row r="21" spans="3:47" x14ac:dyDescent="0.3">
       <c r="D21" s="2"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
+    <row r="22" spans="3:47" x14ac:dyDescent="0.3">
+      <c r="D22" s="2"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="D9:I9"/>
     <mergeCell ref="V6:X6"/>
     <mergeCell ref="T6:U6"/>
@@ -2238,17 +2815,18 @@
     <mergeCell ref="C1:AU2"/>
     <mergeCell ref="C3:AU4"/>
     <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J9:AU9">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>AND(YEAR(TODAY())=$V$6,MONTH(TODAY())=$AD$6,DAY(J9)=DAY(TODAY()),MONTH(J9)=$AD$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="9">
+    <cfRule type="expression" dxfId="12" priority="9">
       <formula>MONTH(J9)&lt;&gt;$AD$6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I19">
+  <conditionalFormatting sqref="I10:I20">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2262,23 +2840,23 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="4" priority="2">
+  <conditionalFormatting sqref="J10:AU20">
+    <cfRule type="expression" dxfId="11" priority="10">
+      <formula>AND(J$9&gt;=$G10,J$9&lt;=$H10)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>J$9=TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="12">
+      <formula>AND(J$9&gt;=$E10,J$9&lt;=$F10)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="expression" dxfId="8" priority="13">
       <formula>K$9=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="7" priority="14">
       <formula>AND(K$9&gt;=$E6,K$9&lt;=$F6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10:AU19">
-    <cfRule type="expression" dxfId="2" priority="10">
-      <formula>AND(J$9&gt;=$G10,J$9&lt;=$H10)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="11">
-      <formula>J$9=TODAY()</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="12">
-      <formula>AND(J$9&gt;=$E10,J$9&lt;=$F10)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -2357,7 +2935,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I10:I19</xm:sqref>
+          <xm:sqref>I10:I20</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2366,15 +2944,1587 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38E59A2-769E-4C03-BA56-D67976B8E920}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38E59A2-769E-4C03-BA56-D67976B8E920}">
+  <dimension ref="B1:AV25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="48" width="3.33203125" style="1" customWidth="1"/>
+    <col min="49" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:48" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="47"/>
+      <c r="AQ1" s="47"/>
+      <c r="AR1" s="47"/>
+      <c r="AS1" s="47"/>
+      <c r="AT1" s="47"/>
+      <c r="AU1" s="47"/>
+      <c r="AV1" s="47"/>
+    </row>
+    <row r="2" spans="2:48" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="47"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="47"/>
+      <c r="AL2" s="47"/>
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="47"/>
+      <c r="AO2" s="47"/>
+      <c r="AP2" s="47"/>
+      <c r="AQ2" s="47"/>
+      <c r="AR2" s="47"/>
+      <c r="AS2" s="47"/>
+      <c r="AT2" s="47"/>
+      <c r="AU2" s="47"/>
+      <c r="AV2" s="47"/>
+    </row>
+    <row r="3" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B3" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="49"/>
+      <c r="AQ3" s="49"/>
+      <c r="AR3" s="49"/>
+      <c r="AS3" s="49"/>
+      <c r="AT3" s="49"/>
+      <c r="AU3" s="49"/>
+      <c r="AV3" s="50"/>
+    </row>
+    <row r="4" spans="2:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="52"/>
+      <c r="AO4" s="52"/>
+      <c r="AP4" s="52"/>
+      <c r="AQ4" s="52"/>
+      <c r="AR4" s="52"/>
+      <c r="AS4" s="52"/>
+      <c r="AT4" s="52"/>
+      <c r="AU4" s="52"/>
+      <c r="AV4" s="53"/>
+    </row>
+    <row r="5" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B5" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="33">
+        <f ca="1">TODAY()</f>
+        <v>44698</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="5"/>
+      <c r="AR5" s="5"/>
+      <c r="AS5" s="5"/>
+      <c r="AT5" s="5"/>
+      <c r="AU5" s="5"/>
+      <c r="AV5" s="15"/>
+    </row>
+    <row r="6" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B6" s="67"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="V6" s="46"/>
+      <c r="W6" s="45">
+        <v>2022</v>
+      </c>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC6" s="46"/>
+      <c r="AD6" s="46"/>
+      <c r="AE6" s="32">
+        <v>5</v>
+      </c>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="5"/>
+      <c r="AU6" s="5"/>
+      <c r="AV6" s="15"/>
+    </row>
+    <row r="7" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B7" s="14"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="5"/>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="5"/>
+      <c r="AU7" s="5"/>
+      <c r="AV7" s="15"/>
+    </row>
+    <row r="8" spans="2:48" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="U8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="W8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV8" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B9" s="70"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="13">
+        <f>DATE($W$6,$AE$6,1)-WEEKDAY(DATE($W$6,$AE$6,1),1)+1</f>
+        <v>44682</v>
+      </c>
+      <c r="L9" s="13">
+        <f>K9+1</f>
+        <v>44683</v>
+      </c>
+      <c r="M9" s="13">
+        <f t="shared" ref="M9:AV9" si="0">L9+1</f>
+        <v>44684</v>
+      </c>
+      <c r="N9" s="13">
+        <f t="shared" si="0"/>
+        <v>44685</v>
+      </c>
+      <c r="O9" s="13">
+        <f t="shared" si="0"/>
+        <v>44686</v>
+      </c>
+      <c r="P9" s="13">
+        <f t="shared" si="0"/>
+        <v>44687</v>
+      </c>
+      <c r="Q9" s="13">
+        <f t="shared" si="0"/>
+        <v>44688</v>
+      </c>
+      <c r="R9" s="13">
+        <f t="shared" si="0"/>
+        <v>44689</v>
+      </c>
+      <c r="S9" s="13">
+        <f t="shared" si="0"/>
+        <v>44690</v>
+      </c>
+      <c r="T9" s="13">
+        <f t="shared" si="0"/>
+        <v>44691</v>
+      </c>
+      <c r="U9" s="13">
+        <f t="shared" si="0"/>
+        <v>44692</v>
+      </c>
+      <c r="V9" s="13">
+        <f t="shared" si="0"/>
+        <v>44693</v>
+      </c>
+      <c r="W9" s="13">
+        <f t="shared" si="0"/>
+        <v>44694</v>
+      </c>
+      <c r="X9" s="13">
+        <f t="shared" si="0"/>
+        <v>44695</v>
+      </c>
+      <c r="Y9" s="13">
+        <f t="shared" si="0"/>
+        <v>44696</v>
+      </c>
+      <c r="Z9" s="13">
+        <f t="shared" si="0"/>
+        <v>44697</v>
+      </c>
+      <c r="AA9" s="13">
+        <f t="shared" si="0"/>
+        <v>44698</v>
+      </c>
+      <c r="AB9" s="13">
+        <f t="shared" si="0"/>
+        <v>44699</v>
+      </c>
+      <c r="AC9" s="13">
+        <f t="shared" si="0"/>
+        <v>44700</v>
+      </c>
+      <c r="AD9" s="13">
+        <f t="shared" si="0"/>
+        <v>44701</v>
+      </c>
+      <c r="AE9" s="13">
+        <f t="shared" si="0"/>
+        <v>44702</v>
+      </c>
+      <c r="AF9" s="13">
+        <f t="shared" si="0"/>
+        <v>44703</v>
+      </c>
+      <c r="AG9" s="13">
+        <f t="shared" si="0"/>
+        <v>44704</v>
+      </c>
+      <c r="AH9" s="13">
+        <f t="shared" si="0"/>
+        <v>44705</v>
+      </c>
+      <c r="AI9" s="13">
+        <f t="shared" si="0"/>
+        <v>44706</v>
+      </c>
+      <c r="AJ9" s="13">
+        <f t="shared" si="0"/>
+        <v>44707</v>
+      </c>
+      <c r="AK9" s="13">
+        <f t="shared" si="0"/>
+        <v>44708</v>
+      </c>
+      <c r="AL9" s="13">
+        <f t="shared" si="0"/>
+        <v>44709</v>
+      </c>
+      <c r="AM9" s="13">
+        <f t="shared" si="0"/>
+        <v>44710</v>
+      </c>
+      <c r="AN9" s="13">
+        <f t="shared" si="0"/>
+        <v>44711</v>
+      </c>
+      <c r="AO9" s="13">
+        <f t="shared" si="0"/>
+        <v>44712</v>
+      </c>
+      <c r="AP9" s="13">
+        <f t="shared" si="0"/>
+        <v>44713</v>
+      </c>
+      <c r="AQ9" s="13">
+        <f t="shared" si="0"/>
+        <v>44714</v>
+      </c>
+      <c r="AR9" s="13">
+        <f t="shared" si="0"/>
+        <v>44715</v>
+      </c>
+      <c r="AS9" s="13">
+        <f t="shared" si="0"/>
+        <v>44716</v>
+      </c>
+      <c r="AT9" s="13">
+        <f t="shared" si="0"/>
+        <v>44717</v>
+      </c>
+      <c r="AU9" s="13">
+        <f t="shared" si="0"/>
+        <v>44718</v>
+      </c>
+      <c r="AV9" s="19">
+        <f t="shared" si="0"/>
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="10" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B10" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="23">
+        <v>0</v>
+      </c>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="25"/>
+      <c r="AE10" s="25"/>
+      <c r="AF10" s="25"/>
+      <c r="AG10" s="25"/>
+      <c r="AH10" s="25"/>
+      <c r="AI10" s="25"/>
+      <c r="AJ10" s="25"/>
+      <c r="AK10" s="25"/>
+      <c r="AL10" s="25"/>
+      <c r="AM10" s="25"/>
+      <c r="AN10" s="25"/>
+      <c r="AO10" s="25"/>
+      <c r="AP10" s="25"/>
+      <c r="AQ10" s="25"/>
+      <c r="AR10" s="25"/>
+      <c r="AS10" s="25"/>
+      <c r="AT10" s="25"/>
+      <c r="AU10" s="25"/>
+      <c r="AV10" s="26"/>
+    </row>
+    <row r="11" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B11" s="59"/>
+      <c r="C11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="23">
+        <v>0</v>
+      </c>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="25"/>
+      <c r="AE11" s="25"/>
+      <c r="AF11" s="25"/>
+      <c r="AG11" s="25"/>
+      <c r="AH11" s="25"/>
+      <c r="AI11" s="25"/>
+      <c r="AJ11" s="25"/>
+      <c r="AK11" s="25"/>
+      <c r="AL11" s="25"/>
+      <c r="AM11" s="25"/>
+      <c r="AN11" s="25"/>
+      <c r="AO11" s="25"/>
+      <c r="AP11" s="25"/>
+      <c r="AQ11" s="25"/>
+      <c r="AR11" s="25"/>
+      <c r="AS11" s="25"/>
+      <c r="AT11" s="25"/>
+      <c r="AU11" s="25"/>
+      <c r="AV11" s="26"/>
+    </row>
+    <row r="12" spans="2:48" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="60"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="25"/>
+      <c r="AE12" s="25"/>
+      <c r="AF12" s="25"/>
+      <c r="AG12" s="25"/>
+      <c r="AH12" s="25"/>
+      <c r="AI12" s="25"/>
+      <c r="AJ12" s="25"/>
+      <c r="AK12" s="25"/>
+      <c r="AL12" s="25"/>
+      <c r="AM12" s="25"/>
+      <c r="AN12" s="25"/>
+      <c r="AO12" s="25"/>
+      <c r="AP12" s="25"/>
+      <c r="AQ12" s="25"/>
+      <c r="AR12" s="25"/>
+      <c r="AS12" s="25"/>
+      <c r="AT12" s="25"/>
+      <c r="AU12" s="25"/>
+      <c r="AV12" s="26"/>
+    </row>
+    <row r="13" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B13" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="23">
+        <v>0</v>
+      </c>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="25"/>
+      <c r="AF13" s="25"/>
+      <c r="AG13" s="25"/>
+      <c r="AH13" s="25"/>
+      <c r="AI13" s="25"/>
+      <c r="AJ13" s="25"/>
+      <c r="AK13" s="25"/>
+      <c r="AL13" s="25"/>
+      <c r="AM13" s="25"/>
+      <c r="AN13" s="25"/>
+      <c r="AO13" s="25"/>
+      <c r="AP13" s="25"/>
+      <c r="AQ13" s="25"/>
+      <c r="AR13" s="25"/>
+      <c r="AS13" s="25"/>
+      <c r="AT13" s="25"/>
+      <c r="AU13" s="25"/>
+      <c r="AV13" s="26"/>
+    </row>
+    <row r="14" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B14" s="59"/>
+      <c r="C14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="23">
+        <v>0</v>
+      </c>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="25"/>
+      <c r="AH14" s="25"/>
+      <c r="AI14" s="25"/>
+      <c r="AJ14" s="25"/>
+      <c r="AK14" s="25"/>
+      <c r="AL14" s="25"/>
+      <c r="AM14" s="25"/>
+      <c r="AN14" s="25"/>
+      <c r="AO14" s="25"/>
+      <c r="AP14" s="25"/>
+      <c r="AQ14" s="25"/>
+      <c r="AR14" s="25"/>
+      <c r="AS14" s="25"/>
+      <c r="AT14" s="25"/>
+      <c r="AU14" s="25"/>
+      <c r="AV14" s="26"/>
+    </row>
+    <row r="15" spans="2:48" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="25"/>
+      <c r="AG15" s="25"/>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="25"/>
+      <c r="AJ15" s="25"/>
+      <c r="AK15" s="25"/>
+      <c r="AL15" s="25"/>
+      <c r="AM15" s="25"/>
+      <c r="AN15" s="25"/>
+      <c r="AO15" s="25"/>
+      <c r="AP15" s="25"/>
+      <c r="AQ15" s="25"/>
+      <c r="AR15" s="25"/>
+      <c r="AS15" s="25"/>
+      <c r="AT15" s="25"/>
+      <c r="AU15" s="25"/>
+      <c r="AV15" s="26"/>
+    </row>
+    <row r="16" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B16" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="23">
+        <v>0</v>
+      </c>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="25"/>
+      <c r="AI16" s="25"/>
+      <c r="AJ16" s="25"/>
+      <c r="AK16" s="25"/>
+      <c r="AL16" s="25"/>
+      <c r="AM16" s="25"/>
+      <c r="AN16" s="25"/>
+      <c r="AO16" s="25"/>
+      <c r="AP16" s="25"/>
+      <c r="AQ16" s="25"/>
+      <c r="AR16" s="25"/>
+      <c r="AS16" s="25"/>
+      <c r="AT16" s="25"/>
+      <c r="AU16" s="25"/>
+      <c r="AV16" s="26"/>
+    </row>
+    <row r="17" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B17" s="59"/>
+      <c r="C17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="23">
+        <v>0</v>
+      </c>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="25"/>
+      <c r="AF17" s="25"/>
+      <c r="AG17" s="25"/>
+      <c r="AH17" s="25"/>
+      <c r="AI17" s="25"/>
+      <c r="AJ17" s="25"/>
+      <c r="AK17" s="25"/>
+      <c r="AL17" s="25"/>
+      <c r="AM17" s="25"/>
+      <c r="AN17" s="25"/>
+      <c r="AO17" s="25"/>
+      <c r="AP17" s="25"/>
+      <c r="AQ17" s="25"/>
+      <c r="AR17" s="25"/>
+      <c r="AS17" s="25"/>
+      <c r="AT17" s="25"/>
+      <c r="AU17" s="25"/>
+      <c r="AV17" s="26"/>
+    </row>
+    <row r="18" spans="2:48" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="60"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="25"/>
+      <c r="AE18" s="25"/>
+      <c r="AF18" s="25"/>
+      <c r="AG18" s="25"/>
+      <c r="AH18" s="25"/>
+      <c r="AI18" s="25"/>
+      <c r="AJ18" s="25"/>
+      <c r="AK18" s="25"/>
+      <c r="AL18" s="25"/>
+      <c r="AM18" s="25"/>
+      <c r="AN18" s="25"/>
+      <c r="AO18" s="25"/>
+      <c r="AP18" s="25"/>
+      <c r="AQ18" s="25"/>
+      <c r="AR18" s="25"/>
+      <c r="AS18" s="25"/>
+      <c r="AT18" s="25"/>
+      <c r="AU18" s="25"/>
+      <c r="AV18" s="26"/>
+    </row>
+    <row r="19" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B19" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="23">
+        <v>0</v>
+      </c>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="25"/>
+      <c r="AD19" s="25"/>
+      <c r="AE19" s="25"/>
+      <c r="AF19" s="25"/>
+      <c r="AG19" s="25"/>
+      <c r="AH19" s="25"/>
+      <c r="AI19" s="25"/>
+      <c r="AJ19" s="25"/>
+      <c r="AK19" s="25"/>
+      <c r="AL19" s="25"/>
+      <c r="AM19" s="25"/>
+      <c r="AN19" s="25"/>
+      <c r="AO19" s="25"/>
+      <c r="AP19" s="25"/>
+      <c r="AQ19" s="25"/>
+      <c r="AR19" s="25"/>
+      <c r="AS19" s="25"/>
+      <c r="AT19" s="25"/>
+      <c r="AU19" s="25"/>
+      <c r="AV19" s="26"/>
+    </row>
+    <row r="20" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B20" s="59"/>
+      <c r="C20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="23">
+        <v>0</v>
+      </c>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="25"/>
+      <c r="AD20" s="25"/>
+      <c r="AE20" s="25"/>
+      <c r="AF20" s="25"/>
+      <c r="AG20" s="25"/>
+      <c r="AH20" s="25"/>
+      <c r="AI20" s="25"/>
+      <c r="AJ20" s="25"/>
+      <c r="AK20" s="25"/>
+      <c r="AL20" s="25"/>
+      <c r="AM20" s="25"/>
+      <c r="AN20" s="25"/>
+      <c r="AO20" s="25"/>
+      <c r="AP20" s="25"/>
+      <c r="AQ20" s="25"/>
+      <c r="AR20" s="25"/>
+      <c r="AS20" s="25"/>
+      <c r="AT20" s="25"/>
+      <c r="AU20" s="25"/>
+      <c r="AV20" s="26"/>
+    </row>
+    <row r="21" spans="2:48" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="60"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="25"/>
+      <c r="AC21" s="25"/>
+      <c r="AD21" s="25"/>
+      <c r="AE21" s="25"/>
+      <c r="AF21" s="25"/>
+      <c r="AG21" s="25"/>
+      <c r="AH21" s="25"/>
+      <c r="AI21" s="25"/>
+      <c r="AJ21" s="25"/>
+      <c r="AK21" s="25"/>
+      <c r="AL21" s="25"/>
+      <c r="AM21" s="25"/>
+      <c r="AN21" s="25"/>
+      <c r="AO21" s="25"/>
+      <c r="AP21" s="25"/>
+      <c r="AQ21" s="25"/>
+      <c r="AR21" s="25"/>
+      <c r="AS21" s="25"/>
+      <c r="AT21" s="25"/>
+      <c r="AU21" s="25"/>
+      <c r="AV21" s="26"/>
+    </row>
+    <row r="22" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B22" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="23">
+        <v>0</v>
+      </c>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="25"/>
+      <c r="AC22" s="25"/>
+      <c r="AD22" s="25"/>
+      <c r="AE22" s="25"/>
+      <c r="AF22" s="25"/>
+      <c r="AG22" s="25"/>
+      <c r="AH22" s="25"/>
+      <c r="AI22" s="25"/>
+      <c r="AJ22" s="25"/>
+      <c r="AK22" s="25"/>
+      <c r="AL22" s="25"/>
+      <c r="AM22" s="25"/>
+      <c r="AN22" s="25"/>
+      <c r="AO22" s="25"/>
+      <c r="AP22" s="25"/>
+      <c r="AQ22" s="25"/>
+      <c r="AR22" s="25"/>
+      <c r="AS22" s="25"/>
+      <c r="AT22" s="25"/>
+      <c r="AU22" s="25"/>
+      <c r="AV22" s="26"/>
+    </row>
+    <row r="23" spans="2:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="63"/>
+      <c r="C23" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="37">
+        <v>0</v>
+      </c>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="38"/>
+      <c r="AA23" s="38"/>
+      <c r="AB23" s="38"/>
+      <c r="AC23" s="38"/>
+      <c r="AD23" s="38"/>
+      <c r="AE23" s="38"/>
+      <c r="AF23" s="38"/>
+      <c r="AG23" s="38"/>
+      <c r="AH23" s="38"/>
+      <c r="AI23" s="38"/>
+      <c r="AJ23" s="38"/>
+      <c r="AK23" s="38"/>
+      <c r="AL23" s="38"/>
+      <c r="AM23" s="38"/>
+      <c r="AN23" s="38"/>
+      <c r="AO23" s="38"/>
+      <c r="AP23" s="38"/>
+      <c r="AQ23" s="38"/>
+      <c r="AR23" s="38"/>
+      <c r="AS23" s="38"/>
+      <c r="AT23" s="38"/>
+      <c r="AU23" s="38"/>
+      <c r="AV23" s="39"/>
+    </row>
+    <row r="24" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="B1:AV2"/>
+    <mergeCell ref="B3:AV4"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B15:J15"/>
+  </mergeCells>
+  <conditionalFormatting sqref="K9:AV9">
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>AND(YEAR(TODAY())=$W$6,MONTH(TODAY())=$AE$6,DAY(K9)=DAY(TODAY()),MONTH(K9)=$AE$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>MONTH(K9)&lt;&gt;$AE$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10:J11 J13:J14 J16:J17 J19:J20 J22:J23">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{19C8F14E-4080-4F78-840A-B5E309D2F158}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10:AV23">
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>AND(K$9&gt;=$H10,K$9&lt;=$I10)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>K$9=TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>AND(K$9&gt;=$F10,K$9&lt;=$G10)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>L$9=TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="8">
+      <formula>AND(L$9&gt;=$F6,L$9&lt;=$G6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tips" prompt="ActualEndTime" sqref="I8" xr:uid="{F8BFE3A6-D2E1-4EFB-9195-0585B421BE1D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tips" prompt="ActualStartTime" sqref="H8" xr:uid="{22821D6C-5F57-448D-82CD-85CCCAB6782F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tips" prompt="EstimatedEndTime" sqref="G8" xr:uid="{AC877393-8588-4059-809A-0C32FD02E91D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tips" prompt="EstimatedStartTime" sqref="F8" xr:uid="{F2F40429-E2B9-4B22-AE2A-70757C350910}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2049" r:id="rId4" name="Spinner 1">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>25</xdr:col>
+                    <xdr:colOff>30480</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>160020</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>25</xdr:col>
+                    <xdr:colOff>243840</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>45720</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2050" r:id="rId5" name="Spinner 2">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>31</xdr:col>
+                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>160020</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>32</xdr:col>
+                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{19C8F14E-4080-4F78-840A-B5E309D2F158}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J10:J11 J13:J14 J16:J17 J19:J20 J22:J23</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>